--- a/data/pca/factorExposure/factorExposure_2011-11-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-11-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01051227372176586</v>
+        <v>0.01181410907402882</v>
       </c>
       <c r="C2">
-        <v>0.03096587638686681</v>
+        <v>0.02229250791972143</v>
       </c>
       <c r="D2">
-        <v>0.01887654089258337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02331341186795127</v>
+      </c>
+      <c r="E2">
+        <v>-0.01189525982359511</v>
+      </c>
+      <c r="F2">
+        <v>0.02881879891810857</v>
+      </c>
+      <c r="G2">
+        <v>0.0004177958396399099</v>
+      </c>
+      <c r="H2">
+        <v>0.02427045097233465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07483226488299623</v>
+        <v>0.08923541293566337</v>
       </c>
       <c r="C4">
-        <v>0.06174726789010889</v>
+        <v>0.03625894424892867</v>
       </c>
       <c r="D4">
-        <v>0.07068751016283635</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.071092923808437</v>
+      </c>
+      <c r="E4">
+        <v>-0.0102005016747313</v>
+      </c>
+      <c r="F4">
+        <v>0.04017649008262963</v>
+      </c>
+      <c r="G4">
+        <v>-0.01254739405054621</v>
+      </c>
+      <c r="H4">
+        <v>-0.04168013185696093</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.109667282110305</v>
+        <v>0.1242906005449484</v>
       </c>
       <c r="C6">
-        <v>0.06390795568574448</v>
+        <v>0.0463447223877205</v>
       </c>
       <c r="D6">
-        <v>-0.0005916486224066116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01368938864690303</v>
+      </c>
+      <c r="E6">
+        <v>0.02716279076605672</v>
+      </c>
+      <c r="F6">
+        <v>0.04707854429226528</v>
+      </c>
+      <c r="G6">
+        <v>-0.01468606299965889</v>
+      </c>
+      <c r="H6">
+        <v>0.1088746888603703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05317008552337506</v>
+        <v>0.0645121724797949</v>
       </c>
       <c r="C7">
-        <v>0.03654499516112136</v>
+        <v>0.01653473000239138</v>
       </c>
       <c r="D7">
-        <v>0.03088447296887317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05204883799573885</v>
+      </c>
+      <c r="E7">
+        <v>-0.03272486829426118</v>
+      </c>
+      <c r="F7">
+        <v>0.04353708455143114</v>
+      </c>
+      <c r="G7">
+        <v>0.02587455425713956</v>
+      </c>
+      <c r="H7">
+        <v>-0.01708803887784987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.04051170359904051</v>
+        <v>0.04507536579680883</v>
       </c>
       <c r="C8">
-        <v>0.01687416005865554</v>
+        <v>0.01058373631720282</v>
       </c>
       <c r="D8">
-        <v>0.06360805224278455</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02598059488179544</v>
+      </c>
+      <c r="E8">
+        <v>-0.01111315208668606</v>
+      </c>
+      <c r="F8">
+        <v>0.07127888677175344</v>
+      </c>
+      <c r="G8">
+        <v>-0.07701822558016555</v>
+      </c>
+      <c r="H8">
+        <v>0.0165775951957147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06997714439674325</v>
+        <v>0.08014521482643687</v>
       </c>
       <c r="C9">
-        <v>0.04536556109077525</v>
+        <v>0.02188933393531367</v>
       </c>
       <c r="D9">
-        <v>0.06781658831210516</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06381288383473502</v>
+      </c>
+      <c r="E9">
+        <v>-0.0240951244528534</v>
+      </c>
+      <c r="F9">
+        <v>0.03341971704394198</v>
+      </c>
+      <c r="G9">
+        <v>-0.0287183637040813</v>
+      </c>
+      <c r="H9">
+        <v>-0.04253951560562802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02508779382927262</v>
+        <v>0.04540585843422426</v>
       </c>
       <c r="C10">
-        <v>0.02060849726383291</v>
+        <v>0.07644889912266808</v>
       </c>
       <c r="D10">
-        <v>-0.171361552351996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1715628497890311</v>
+      </c>
+      <c r="E10">
+        <v>-0.03951133298086634</v>
+      </c>
+      <c r="F10">
+        <v>0.05078354997288374</v>
+      </c>
+      <c r="G10">
+        <v>0.03801689766792205</v>
+      </c>
+      <c r="H10">
+        <v>0.0501605311214627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.06796956663658761</v>
+        <v>0.07374922753459909</v>
       </c>
       <c r="C11">
-        <v>0.04379477424508513</v>
+        <v>0.01412841026775581</v>
       </c>
       <c r="D11">
-        <v>0.05063146194531554</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06500620617396757</v>
+      </c>
+      <c r="E11">
+        <v>0.0007445541686335506</v>
+      </c>
+      <c r="F11">
+        <v>0.03336321973831449</v>
+      </c>
+      <c r="G11">
+        <v>-0.05122943280796655</v>
+      </c>
+      <c r="H11">
+        <v>-0.06128462831280803</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.05745679310346492</v>
+        <v>0.06757240152418732</v>
       </c>
       <c r="C12">
-        <v>0.05298945227317726</v>
+        <v>0.02778703122173093</v>
       </c>
       <c r="D12">
-        <v>0.04454708130337835</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05340307310069142</v>
+      </c>
+      <c r="E12">
+        <v>-0.01198419122520661</v>
+      </c>
+      <c r="F12">
+        <v>0.02190259907158851</v>
+      </c>
+      <c r="G12">
+        <v>-0.02801046597257676</v>
+      </c>
+      <c r="H12">
+        <v>-0.02868503843562113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06839119394971541</v>
+        <v>0.07049623590636918</v>
       </c>
       <c r="C13">
-        <v>0.05012821237942553</v>
+        <v>0.02568784259772926</v>
       </c>
       <c r="D13">
-        <v>0.03813865753252039</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04015103112394072</v>
+      </c>
+      <c r="E13">
+        <v>-0.006003759797374648</v>
+      </c>
+      <c r="F13">
+        <v>0.02380792555820007</v>
+      </c>
+      <c r="G13">
+        <v>-0.02615509132869834</v>
+      </c>
+      <c r="H13">
+        <v>-0.05278099298929186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02991945292452572</v>
+        <v>0.03950526080505174</v>
       </c>
       <c r="C14">
-        <v>0.03033861089789193</v>
+        <v>0.02603263173030532</v>
       </c>
       <c r="D14">
-        <v>-0.00695365328581226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.0145457298533196</v>
+      </c>
+      <c r="E14">
+        <v>-0.02555655919534901</v>
+      </c>
+      <c r="F14">
+        <v>0.01503038710137485</v>
+      </c>
+      <c r="G14">
+        <v>-0.01923191275610348</v>
+      </c>
+      <c r="H14">
+        <v>-0.06345258309272102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04090148607634739</v>
+        <v>0.04030111537087563</v>
       </c>
       <c r="C15">
-        <v>0.01318641042871839</v>
+        <v>0.003861539974147888</v>
       </c>
       <c r="D15">
-        <v>0.02253973821156105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.009597825638452866</v>
+      </c>
+      <c r="E15">
+        <v>-0.03485925112387568</v>
+      </c>
+      <c r="F15">
+        <v>0.003271900800728328</v>
+      </c>
+      <c r="G15">
+        <v>-0.0309257700578163</v>
+      </c>
+      <c r="H15">
+        <v>-0.02799044045222793</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.05702550038129983</v>
+        <v>0.06947291219956209</v>
       </c>
       <c r="C16">
-        <v>0.04255120963024493</v>
+        <v>0.01868933060793765</v>
       </c>
       <c r="D16">
-        <v>0.05420501213535571</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06503376835042861</v>
+      </c>
+      <c r="E16">
+        <v>-0.004944085085163858</v>
+      </c>
+      <c r="F16">
+        <v>0.02958979187555017</v>
+      </c>
+      <c r="G16">
+        <v>-0.02428458339230478</v>
+      </c>
+      <c r="H16">
+        <v>-0.04855185191474531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06395560542359864</v>
+        <v>0.06273374575946149</v>
       </c>
       <c r="C20">
-        <v>0.02951497241335366</v>
+        <v>0.004419819138399205</v>
       </c>
       <c r="D20">
-        <v>0.04365207943337018</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04004746198897432</v>
+      </c>
+      <c r="E20">
+        <v>-0.005702863933666662</v>
+      </c>
+      <c r="F20">
+        <v>0.0267914733671051</v>
+      </c>
+      <c r="G20">
+        <v>-0.0191504762448265</v>
+      </c>
+      <c r="H20">
+        <v>-0.04293874131351525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03276930942244259</v>
+        <v>0.02955195727069482</v>
       </c>
       <c r="C21">
-        <v>0.009480335623360271</v>
+        <v>-0.004071340427192633</v>
       </c>
       <c r="D21">
-        <v>0.01315693269445711</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01938180446570022</v>
+      </c>
+      <c r="E21">
+        <v>-0.04066405883511078</v>
+      </c>
+      <c r="F21">
+        <v>-0.0139350262647146</v>
+      </c>
+      <c r="G21">
+        <v>-0.008314640340414641</v>
+      </c>
+      <c r="H21">
+        <v>0.04333544918744983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07751537820452285</v>
+        <v>0.06943649845158074</v>
       </c>
       <c r="C22">
-        <v>0.06918271565588253</v>
+        <v>0.02083002422081669</v>
       </c>
       <c r="D22">
-        <v>0.1514747884227988</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1133274298103107</v>
+      </c>
+      <c r="E22">
+        <v>-0.6095548905501696</v>
+      </c>
+      <c r="F22">
+        <v>-0.05691170865211053</v>
+      </c>
+      <c r="G22">
+        <v>0.1739873144316968</v>
+      </c>
+      <c r="H22">
+        <v>0.1317411027614805</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07860375561970313</v>
+        <v>0.07038263999707994</v>
       </c>
       <c r="C23">
-        <v>0.06765776240127211</v>
+        <v>0.01923282562325031</v>
       </c>
       <c r="D23">
-        <v>0.1527467344530779</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1142135994514129</v>
+      </c>
+      <c r="E23">
+        <v>-0.6116575950738752</v>
+      </c>
+      <c r="F23">
+        <v>-0.05628650769917546</v>
+      </c>
+      <c r="G23">
+        <v>0.1682763235626157</v>
+      </c>
+      <c r="H23">
+        <v>0.1272167395531485</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07404090072736466</v>
+        <v>0.07902241369092512</v>
       </c>
       <c r="C24">
-        <v>0.05291376651329403</v>
+        <v>0.02153687495356928</v>
       </c>
       <c r="D24">
-        <v>0.05828074601264131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06404793132387683</v>
+      </c>
+      <c r="E24">
+        <v>-0.0123315378336862</v>
+      </c>
+      <c r="F24">
+        <v>0.03720155837161201</v>
+      </c>
+      <c r="G24">
+        <v>-0.04007634648010384</v>
+      </c>
+      <c r="H24">
+        <v>-0.0299495757007538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07218140132707064</v>
+        <v>0.07815456780809972</v>
       </c>
       <c r="C25">
-        <v>0.05612318948181696</v>
+        <v>0.02719796646845868</v>
       </c>
       <c r="D25">
-        <v>0.05840228729773507</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05670577433773134</v>
+      </c>
+      <c r="E25">
+        <v>-0.01418434654756978</v>
+      </c>
+      <c r="F25">
+        <v>0.0320439134994917</v>
+      </c>
+      <c r="G25">
+        <v>-0.04839858546668249</v>
+      </c>
+      <c r="H25">
+        <v>-0.03898586648601372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04452440668638338</v>
+        <v>0.04414216117642203</v>
       </c>
       <c r="C26">
-        <v>0.01544332721543784</v>
+        <v>0.00120899424228047</v>
       </c>
       <c r="D26">
-        <v>0.009950404887617999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01984682063403352</v>
+      </c>
+      <c r="E26">
+        <v>-0.04344592857425597</v>
+      </c>
+      <c r="F26">
+        <v>0.02746256703243664</v>
+      </c>
+      <c r="G26">
+        <v>-0.02383363511818036</v>
+      </c>
+      <c r="H26">
+        <v>-0.04468770717023578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.03703412636342102</v>
+        <v>0.06511841196126331</v>
       </c>
       <c r="C28">
-        <v>0.05461082335431735</v>
+        <v>0.1381883831958226</v>
       </c>
       <c r="D28">
-        <v>-0.3054108005201897</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2896084370800565</v>
+      </c>
+      <c r="E28">
+        <v>-0.04056736182223494</v>
+      </c>
+      <c r="F28">
+        <v>0.05151930661560409</v>
+      </c>
+      <c r="G28">
+        <v>-0.02188871145129016</v>
+      </c>
+      <c r="H28">
+        <v>0.05652219042931501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04435366498292861</v>
+        <v>0.04792102072656012</v>
       </c>
       <c r="C29">
-        <v>0.04068413231508593</v>
+        <v>0.02903031388863431</v>
       </c>
       <c r="D29">
-        <v>0.00119037723763059</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01622705319150319</v>
+      </c>
+      <c r="E29">
+        <v>-0.05515896496677763</v>
+      </c>
+      <c r="F29">
+        <v>0.01440383922414945</v>
+      </c>
+      <c r="G29">
+        <v>-0.009744130024273713</v>
+      </c>
+      <c r="H29">
+        <v>-0.0784684540350476</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1261286609112001</v>
+        <v>0.1251184601689307</v>
       </c>
       <c r="C30">
-        <v>0.098013259428848</v>
+        <v>0.04950519758102961</v>
       </c>
       <c r="D30">
-        <v>0.1109425269101808</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08740956277505414</v>
+      </c>
+      <c r="E30">
+        <v>-0.05681783779643019</v>
+      </c>
+      <c r="F30">
+        <v>0.01718049080059222</v>
+      </c>
+      <c r="G30">
+        <v>-0.06719596690480067</v>
+      </c>
+      <c r="H30">
+        <v>0.04592546684316001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04715761566656419</v>
+        <v>0.04903891712523077</v>
       </c>
       <c r="C31">
-        <v>0.02622492503224493</v>
+        <v>0.008315427814024397</v>
       </c>
       <c r="D31">
-        <v>0.02038699395403991</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03496303962086617</v>
+      </c>
+      <c r="E31">
+        <v>-0.02227799443829117</v>
+      </c>
+      <c r="F31">
+        <v>0.009508623865815708</v>
+      </c>
+      <c r="G31">
+        <v>0.0006435671492315034</v>
+      </c>
+      <c r="H31">
+        <v>-0.07066264406729539</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03302852420245024</v>
+        <v>0.03661562348744025</v>
       </c>
       <c r="C32">
-        <v>0.02339024562018831</v>
+        <v>0.01986223232158555</v>
       </c>
       <c r="D32">
-        <v>0.03018299871695157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01246970714427523</v>
+      </c>
+      <c r="E32">
+        <v>-0.04686101734522737</v>
+      </c>
+      <c r="F32">
+        <v>-0.004696148555489011</v>
+      </c>
+      <c r="G32">
+        <v>-0.04595696344063535</v>
+      </c>
+      <c r="H32">
+        <v>-0.007182688119609958</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08388024322593748</v>
+        <v>0.0936312693999798</v>
       </c>
       <c r="C33">
-        <v>0.04641856814518833</v>
+        <v>0.01882254820720627</v>
       </c>
       <c r="D33">
-        <v>0.04677809289037485</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.05139376725202952</v>
+      </c>
+      <c r="E33">
+        <v>-0.0126808397187136</v>
+      </c>
+      <c r="F33">
+        <v>0.001997083246462183</v>
+      </c>
+      <c r="G33">
+        <v>-0.0110844722319261</v>
+      </c>
+      <c r="H33">
+        <v>-0.06559656603383934</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05870962954014508</v>
+        <v>0.06531706695214017</v>
       </c>
       <c r="C34">
-        <v>0.02896102130125956</v>
+        <v>0.005994527022720789</v>
       </c>
       <c r="D34">
-        <v>0.04822280268249114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04972997988286217</v>
+      </c>
+      <c r="E34">
+        <v>-0.00625630107220392</v>
+      </c>
+      <c r="F34">
+        <v>0.02153038431324071</v>
+      </c>
+      <c r="G34">
+        <v>-0.03391988770991306</v>
+      </c>
+      <c r="H34">
+        <v>-0.04807148199938189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03580399330142753</v>
+        <v>0.0375577462769244</v>
       </c>
       <c r="C35">
-        <v>0.01402500362311953</v>
+        <v>0.004716343246545105</v>
       </c>
       <c r="D35">
-        <v>0.02064775474866587</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01774435665099925</v>
+      </c>
+      <c r="E35">
+        <v>-0.02349953044634487</v>
+      </c>
+      <c r="F35">
+        <v>-0.01607360020407909</v>
+      </c>
+      <c r="G35">
+        <v>0.004954943156772108</v>
+      </c>
+      <c r="H35">
+        <v>-0.03406022850708944</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02524993446661866</v>
+        <v>0.02752531233316079</v>
       </c>
       <c r="C36">
-        <v>0.02050854576650673</v>
+        <v>0.01102400901163929</v>
       </c>
       <c r="D36">
-        <v>0.01812840157127509</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01995491665241499</v>
+      </c>
+      <c r="E36">
+        <v>-0.03269723734153901</v>
+      </c>
+      <c r="F36">
+        <v>0.02583121283824707</v>
+      </c>
+      <c r="G36">
+        <v>-0.01435271458088362</v>
+      </c>
+      <c r="H36">
+        <v>-0.04408093832965456</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04906188373187738</v>
+        <v>0.04720578615939182</v>
       </c>
       <c r="C38">
-        <v>0.009070060280036388</v>
+        <v>-0.006040745772268673</v>
       </c>
       <c r="D38">
-        <v>0.006888069817306728</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02069162611380276</v>
+      </c>
+      <c r="E38">
+        <v>-0.04908128811116257</v>
+      </c>
+      <c r="F38">
+        <v>-0.001106343502490053</v>
+      </c>
+      <c r="G38">
+        <v>-0.006313259312898951</v>
+      </c>
+      <c r="H38">
+        <v>-0.02174947769843508</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09043639586788246</v>
+        <v>0.101567048150417</v>
       </c>
       <c r="C39">
-        <v>0.07359345218919115</v>
+        <v>0.04210770131530246</v>
       </c>
       <c r="D39">
-        <v>0.04729756732894613</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06580145908728023</v>
+      </c>
+      <c r="E39">
+        <v>-0.003069046280976534</v>
+      </c>
+      <c r="F39">
+        <v>0.001757203213088378</v>
+      </c>
+      <c r="G39">
+        <v>-0.05541465850183759</v>
+      </c>
+      <c r="H39">
+        <v>-0.01475347391649507</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.08048428888359654</v>
+        <v>0.06212506250813404</v>
       </c>
       <c r="C40">
-        <v>0.04149819462380411</v>
+        <v>0.0002770179640732078</v>
       </c>
       <c r="D40">
-        <v>0.01277556229289714</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03479402897334922</v>
+      </c>
+      <c r="E40">
+        <v>-0.03620869987017993</v>
+      </c>
+      <c r="F40">
+        <v>-0.03620168797355539</v>
+      </c>
+      <c r="G40">
+        <v>-0.06293754432219131</v>
+      </c>
+      <c r="H40">
+        <v>0.08731423923066862</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04702377591389976</v>
+        <v>0.04795303192506357</v>
       </c>
       <c r="C41">
-        <v>0.02112466205498421</v>
+        <v>0.001851778255051133</v>
       </c>
       <c r="D41">
-        <v>0.03262441775844228</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03363908691088169</v>
+      </c>
+      <c r="E41">
+        <v>-0.001540327786836633</v>
+      </c>
+      <c r="F41">
+        <v>-0.01414782197227286</v>
+      </c>
+      <c r="G41">
+        <v>-0.006231125661831059</v>
+      </c>
+      <c r="H41">
+        <v>-0.02825703853781856</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.0544028224498263</v>
+        <v>0.06077952595739576</v>
       </c>
       <c r="C43">
-        <v>0.03220726924184556</v>
+        <v>0.01527609573598323</v>
       </c>
       <c r="D43">
-        <v>0.006605906130105327</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03202910380127744</v>
+      </c>
+      <c r="E43">
+        <v>-0.01808260638494025</v>
+      </c>
+      <c r="F43">
+        <v>0.01323154239911884</v>
+      </c>
+      <c r="G43">
+        <v>0.01541654679355395</v>
+      </c>
+      <c r="H43">
+        <v>-0.06496634351273979</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09913421490664127</v>
+        <v>0.09395055628388377</v>
       </c>
       <c r="C44">
-        <v>0.0373831196077879</v>
+        <v>0.003110017278454347</v>
       </c>
       <c r="D44">
-        <v>0.05131928807527111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0513718862715762</v>
+      </c>
+      <c r="E44">
+        <v>-0.0712380119511163</v>
+      </c>
+      <c r="F44">
+        <v>0.07723054479505838</v>
+      </c>
+      <c r="G44">
+        <v>-0.07124489109231177</v>
+      </c>
+      <c r="H44">
+        <v>-0.03396425947515261</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02545781185898514</v>
+        <v>0.03540511008884957</v>
       </c>
       <c r="C46">
-        <v>0.02413746297974501</v>
+        <v>0.01391308155190159</v>
       </c>
       <c r="D46">
-        <v>0.03454531199018984</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.04103729722680857</v>
+      </c>
+      <c r="E46">
+        <v>-0.02931417653624287</v>
+      </c>
+      <c r="F46">
+        <v>0.01617725487943275</v>
+      </c>
+      <c r="G46">
+        <v>0.001026716705562236</v>
+      </c>
+      <c r="H46">
+        <v>-0.03427020662750426</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03221152392310749</v>
+        <v>0.04107889145665534</v>
       </c>
       <c r="C47">
-        <v>0.02650615404109527</v>
+        <v>0.02113928729680939</v>
       </c>
       <c r="D47">
-        <v>-0.000223956666213435</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01103260231272434</v>
+      </c>
+      <c r="E47">
+        <v>-0.04015550014115726</v>
+      </c>
+      <c r="F47">
+        <v>-0.006915392514100882</v>
+      </c>
+      <c r="G47">
+        <v>0.02838335248754293</v>
+      </c>
+      <c r="H47">
+        <v>-0.03535109688546045</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03602529423958416</v>
+        <v>0.03971509809785042</v>
       </c>
       <c r="C48">
-        <v>0.02793835898017495</v>
+        <v>0.01507757073580753</v>
       </c>
       <c r="D48">
-        <v>0.02656239329292386</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02033199105870022</v>
+      </c>
+      <c r="E48">
+        <v>-0.03975739718924801</v>
+      </c>
+      <c r="F48">
+        <v>0.00934992207066797</v>
+      </c>
+      <c r="G48">
+        <v>-0.02480706846184015</v>
+      </c>
+      <c r="H48">
+        <v>-0.0229493330858634</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1609811623027685</v>
+        <v>0.1987393328392232</v>
       </c>
       <c r="C49">
-        <v>0.05367202206297341</v>
+        <v>0.03506548268240996</v>
       </c>
       <c r="D49">
-        <v>0.00398684543480063</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.03050066368052073</v>
+      </c>
+      <c r="E49">
+        <v>0.1680678025976599</v>
+      </c>
+      <c r="F49">
+        <v>0.04451294918979261</v>
+      </c>
+      <c r="G49">
+        <v>0.1583633754365386</v>
+      </c>
+      <c r="H49">
+        <v>0.2095842172787616</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04251283669294352</v>
+        <v>0.04525996326222071</v>
       </c>
       <c r="C50">
-        <v>0.02708218498304102</v>
+        <v>0.009708670153436549</v>
       </c>
       <c r="D50">
-        <v>0.03535610242217547</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0402522214485199</v>
+      </c>
+      <c r="E50">
+        <v>-0.03165612399299585</v>
+      </c>
+      <c r="F50">
+        <v>0.003773272514657779</v>
+      </c>
+      <c r="G50">
+        <v>0.001407216737357729</v>
+      </c>
+      <c r="H50">
+        <v>-0.0773105518176625</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02454916504227734</v>
+        <v>0.0333512902699005</v>
       </c>
       <c r="C51">
-        <v>0.005890968474114967</v>
+        <v>0.004833087907449038</v>
       </c>
       <c r="D51">
-        <v>-0.0008111824382510098</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.003006677399653336</v>
+      </c>
+      <c r="E51">
+        <v>-0.01098610628470127</v>
+      </c>
+      <c r="F51">
+        <v>0.01109636970595658</v>
+      </c>
+      <c r="G51">
+        <v>0.01951347290616235</v>
+      </c>
+      <c r="H51">
+        <v>0.02344697149679856</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1518992194314737</v>
+        <v>0.1605628819952864</v>
       </c>
       <c r="C53">
-        <v>0.08494538549018947</v>
+        <v>0.05116134728466947</v>
       </c>
       <c r="D53">
-        <v>-0.009562001659621674</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02826216916478382</v>
+      </c>
+      <c r="E53">
+        <v>0.0309140473406829</v>
+      </c>
+      <c r="F53">
+        <v>7.795414480540698e-05</v>
+      </c>
+      <c r="G53">
+        <v>-0.01297460405032176</v>
+      </c>
+      <c r="H53">
+        <v>-0.202816058033048</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05770398122850208</v>
+        <v>0.05795302460675892</v>
       </c>
       <c r="C54">
-        <v>0.03134663385384056</v>
+        <v>0.01617621699858995</v>
       </c>
       <c r="D54">
-        <v>0.01930205408064637</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01772466628936252</v>
+      </c>
+      <c r="E54">
+        <v>-0.05268387154703224</v>
+      </c>
+      <c r="F54">
+        <v>0.01654112841305548</v>
+      </c>
+      <c r="G54">
+        <v>-0.06078597128429734</v>
+      </c>
+      <c r="H54">
+        <v>-0.04148830638249167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1009751183784661</v>
+        <v>0.1027398809684976</v>
       </c>
       <c r="C55">
-        <v>0.05831290607983524</v>
+        <v>0.03017517486620584</v>
       </c>
       <c r="D55">
-        <v>0.01087371037852223</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03218719524605079</v>
+      </c>
+      <c r="E55">
+        <v>0.0002037731834474359</v>
+      </c>
+      <c r="F55">
+        <v>0.01569931061681238</v>
+      </c>
+      <c r="G55">
+        <v>-0.02531162584252339</v>
+      </c>
+      <c r="H55">
+        <v>-0.1569811411411912</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1459417094878543</v>
+        <v>0.1549750784537893</v>
       </c>
       <c r="C56">
-        <v>0.08808427915288498</v>
+        <v>0.04842217300035629</v>
       </c>
       <c r="D56">
-        <v>-0.004758576621437747</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0462680172665299</v>
+      </c>
+      <c r="E56">
+        <v>0.01453819216538304</v>
+      </c>
+      <c r="F56">
+        <v>0.0216242471211802</v>
+      </c>
+      <c r="G56">
+        <v>-0.02115029773784158</v>
+      </c>
+      <c r="H56">
+        <v>-0.2064526830456035</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.13063169133489</v>
+        <v>0.09859143812853365</v>
       </c>
       <c r="C58">
-        <v>-0.01675363353076743</v>
+        <v>-0.06739094956242023</v>
       </c>
       <c r="D58">
-        <v>0.05274026406904509</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02297659051124044</v>
+      </c>
+      <c r="E58">
+        <v>-0.1239371653358078</v>
+      </c>
+      <c r="F58">
+        <v>0.03000389677836455</v>
+      </c>
+      <c r="G58">
+        <v>0.0717676710923881</v>
+      </c>
+      <c r="H58">
+        <v>0.1940799752827113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1148215292165342</v>
+        <v>0.1442911984257715</v>
       </c>
       <c r="C59">
-        <v>0.07240908729546237</v>
+        <v>0.1539498318980521</v>
       </c>
       <c r="D59">
-        <v>-0.4059113343514135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3416551013319342</v>
+      </c>
+      <c r="E59">
+        <v>-0.03765495505542792</v>
+      </c>
+      <c r="F59">
+        <v>0.003738740528299925</v>
+      </c>
+      <c r="G59">
+        <v>-0.006508522333994762</v>
+      </c>
+      <c r="H59">
+        <v>-0.0091707269945836</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2043465711891517</v>
+        <v>0.2377000210225977</v>
       </c>
       <c r="C60">
-        <v>0.1024509220295467</v>
+        <v>0.06349287159996771</v>
       </c>
       <c r="D60">
-        <v>0.006582053627301215</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.05222729322310458</v>
+      </c>
+      <c r="E60">
+        <v>0.1141761538812006</v>
+      </c>
+      <c r="F60">
+        <v>0.04829443090428596</v>
+      </c>
+      <c r="G60">
+        <v>0.0407868616577847</v>
+      </c>
+      <c r="H60">
+        <v>0.1338258742941804</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.07828449973781457</v>
+        <v>0.08576174822548815</v>
       </c>
       <c r="C61">
-        <v>0.04883158864624815</v>
+        <v>0.02516790234119391</v>
       </c>
       <c r="D61">
-        <v>0.0302285842696367</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04554705954206339</v>
+      </c>
+      <c r="E61">
+        <v>-0.007367403593213999</v>
+      </c>
+      <c r="F61">
+        <v>0.01237648071868757</v>
+      </c>
+      <c r="G61">
+        <v>-0.03752294530408596</v>
+      </c>
+      <c r="H61">
+        <v>-0.06027376086035298</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1297383475273893</v>
+        <v>0.1351625696921254</v>
       </c>
       <c r="C62">
-        <v>0.05780521683348995</v>
+        <v>0.02070865431651387</v>
       </c>
       <c r="D62">
-        <v>-0.005413911587593294</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04409626040695061</v>
+      </c>
+      <c r="E62">
+        <v>0.04583161306064099</v>
+      </c>
+      <c r="F62">
+        <v>-0.01830921678958599</v>
+      </c>
+      <c r="G62">
+        <v>-0.04518248255449053</v>
+      </c>
+      <c r="H62">
+        <v>-0.20119960435745</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05006386784067501</v>
+        <v>0.04849095802327168</v>
       </c>
       <c r="C63">
-        <v>0.02510098416977838</v>
+        <v>0.01050552133354532</v>
       </c>
       <c r="D63">
-        <v>0.0273002295875749</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02327361957966774</v>
+      </c>
+      <c r="E63">
+        <v>-0.04188444130214803</v>
+      </c>
+      <c r="F63">
+        <v>-0.0005729387046519761</v>
+      </c>
+      <c r="G63">
+        <v>-0.03410590602093155</v>
+      </c>
+      <c r="H63">
+        <v>-0.03555888632577133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1064396272169548</v>
+        <v>0.1108818152429327</v>
       </c>
       <c r="C64">
-        <v>0.04483609644398027</v>
+        <v>0.02132558541735968</v>
       </c>
       <c r="D64">
-        <v>0.01669733859913151</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02781262283722651</v>
+      </c>
+      <c r="E64">
+        <v>-0.04021377926346457</v>
+      </c>
+      <c r="F64">
+        <v>0.04623166412597387</v>
+      </c>
+      <c r="G64">
+        <v>-0.06577282088536901</v>
+      </c>
+      <c r="H64">
+        <v>-0.02373217597846703</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1256058365665653</v>
+        <v>0.1301809928568429</v>
       </c>
       <c r="C65">
-        <v>0.07096621020646204</v>
+        <v>0.04911662414961939</v>
       </c>
       <c r="D65">
-        <v>0.007612393682922663</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01712476767849117</v>
+      </c>
+      <c r="E65">
+        <v>0.007474577879188878</v>
+      </c>
+      <c r="F65">
+        <v>0.03281160730017609</v>
+      </c>
+      <c r="G65">
+        <v>-0.03828111639645048</v>
+      </c>
+      <c r="H65">
+        <v>0.1321331749465717</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1475741126426029</v>
+        <v>0.1522019911659667</v>
       </c>
       <c r="C66">
-        <v>0.08547197146629597</v>
+        <v>0.03271508009275263</v>
       </c>
       <c r="D66">
-        <v>0.09210188715650625</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1035967365675072</v>
+      </c>
+      <c r="E66">
+        <v>0.02542909877806894</v>
+      </c>
+      <c r="F66">
+        <v>0.006991369674103622</v>
+      </c>
+      <c r="G66">
+        <v>-0.08049665634735705</v>
+      </c>
+      <c r="H66">
+        <v>-0.07303176562605894</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07820110910042746</v>
+        <v>0.08657686718101378</v>
       </c>
       <c r="C67">
-        <v>0.01720988422314777</v>
+        <v>-0.0008158102851674532</v>
       </c>
       <c r="D67">
-        <v>0.01334037487412231</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03318247563535233</v>
+      </c>
+      <c r="E67">
+        <v>-0.02142363063207174</v>
+      </c>
+      <c r="F67">
+        <v>0.01464353388330096</v>
+      </c>
+      <c r="G67">
+        <v>0.009093795430938266</v>
+      </c>
+      <c r="H67">
+        <v>-0.02203516470612137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.04888846934336525</v>
+        <v>0.05984793022831893</v>
       </c>
       <c r="C68">
-        <v>0.04172843761493676</v>
+        <v>0.1083055679652083</v>
       </c>
       <c r="D68">
-        <v>-0.2600324019659888</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.252955725443172</v>
+      </c>
+      <c r="E68">
+        <v>-0.04812889772254376</v>
+      </c>
+      <c r="F68">
+        <v>0.01287115438182192</v>
+      </c>
+      <c r="G68">
+        <v>0.0001468874293815267</v>
+      </c>
+      <c r="H68">
+        <v>-0.01800519601861897</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05377849429106127</v>
+        <v>0.05251781468767983</v>
       </c>
       <c r="C69">
-        <v>0.02464958958770618</v>
+        <v>0.005932731513760939</v>
       </c>
       <c r="D69">
-        <v>0.01970934193419823</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.02135355751571062</v>
+      </c>
+      <c r="E69">
+        <v>-0.02373226880310149</v>
+      </c>
+      <c r="F69">
+        <v>-0.01090806694018124</v>
+      </c>
+      <c r="G69">
+        <v>-0.0009841248877993757</v>
+      </c>
+      <c r="H69">
+        <v>-0.04743219203793271</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.005619448011970102</v>
+        <v>0.03026863093457499</v>
       </c>
       <c r="C70">
-        <v>-0.002622970099491209</v>
+        <v>0.004445853999255573</v>
       </c>
       <c r="D70">
-        <v>-0.01401711425513643</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.007752722911792</v>
+      </c>
+      <c r="E70">
+        <v>0.02374434695811284</v>
+      </c>
+      <c r="F70">
+        <v>-0.007422502255555612</v>
+      </c>
+      <c r="G70">
+        <v>0.02630029956901401</v>
+      </c>
+      <c r="H70">
+        <v>0.03264376909801552</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.04637590257387097</v>
+        <v>0.06534969754785329</v>
       </c>
       <c r="C71">
-        <v>0.03854426161390104</v>
+        <v>0.1201557580634799</v>
       </c>
       <c r="D71">
-        <v>-0.2917935580077161</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2799150500228639</v>
+      </c>
+      <c r="E71">
+        <v>-0.04816218178677176</v>
+      </c>
+      <c r="F71">
+        <v>0.03838758973764432</v>
+      </c>
+      <c r="G71">
+        <v>0.001179141977056024</v>
+      </c>
+      <c r="H71">
+        <v>-0.01223712060793196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1389428827705875</v>
+        <v>0.1425617525794817</v>
       </c>
       <c r="C72">
-        <v>0.06545825152237958</v>
+        <v>0.03334730696737136</v>
       </c>
       <c r="D72">
-        <v>-0.01583545826915746</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.007828642704216106</v>
+      </c>
+      <c r="E72">
+        <v>0.04792834542188481</v>
+      </c>
+      <c r="F72">
+        <v>-0.1600241153558824</v>
+      </c>
+      <c r="G72">
+        <v>-0.1084467637865415</v>
+      </c>
+      <c r="H72">
+        <v>0.006188583031684426</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.282908277509526</v>
+        <v>0.286280199051144</v>
       </c>
       <c r="C73">
-        <v>0.100927721340926</v>
+        <v>0.01223276710739507</v>
       </c>
       <c r="D73">
-        <v>0.04324537386850491</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09843473461855938</v>
+      </c>
+      <c r="E73">
+        <v>0.2600502436018854</v>
+      </c>
+      <c r="F73">
+        <v>0.07047504857086204</v>
+      </c>
+      <c r="G73">
+        <v>0.2731885633896205</v>
+      </c>
+      <c r="H73">
+        <v>0.3991384837417402</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.07861051071955472</v>
+        <v>0.08968679230794983</v>
       </c>
       <c r="C74">
-        <v>0.0758747803583443</v>
+        <v>0.04991340104081223</v>
       </c>
       <c r="D74">
-        <v>0.003896974356328136</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04537355355227959</v>
+      </c>
+      <c r="E74">
+        <v>0.006459219920231896</v>
+      </c>
+      <c r="F74">
+        <v>-1.833129157612835e-05</v>
+      </c>
+      <c r="G74">
+        <v>0.0259262457387638</v>
+      </c>
+      <c r="H74">
+        <v>-0.1358005460106086</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09986797201844622</v>
+        <v>0.1022198019013518</v>
       </c>
       <c r="C75">
-        <v>0.0529622572325934</v>
+        <v>0.02024656809314541</v>
       </c>
       <c r="D75">
-        <v>0.005843105154846808</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02639803618730241</v>
+      </c>
+      <c r="E75">
+        <v>0.0001253974750376393</v>
+      </c>
+      <c r="F75">
+        <v>-0.0003082416453385063</v>
+      </c>
+      <c r="G75">
+        <v>0.003069107877539169</v>
+      </c>
+      <c r="H75">
+        <v>-0.09751848972109148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1267888422776647</v>
+        <v>0.1388139097562369</v>
       </c>
       <c r="C76">
-        <v>0.07450153621165991</v>
+        <v>0.03969552149253529</v>
       </c>
       <c r="D76">
-        <v>0.02397032317595678</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05812488354276051</v>
+      </c>
+      <c r="E76">
+        <v>-0.01006657144561222</v>
+      </c>
+      <c r="F76">
+        <v>0.0301247470082591</v>
+      </c>
+      <c r="G76">
+        <v>-0.02549111926351545</v>
+      </c>
+      <c r="H76">
+        <v>-0.2289880944484957</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1172459753223169</v>
+        <v>0.1008279293359262</v>
       </c>
       <c r="C77">
-        <v>0.04000525792413358</v>
+        <v>-0.006798702024119226</v>
       </c>
       <c r="D77">
-        <v>0.08581199360272181</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.04305882964168932</v>
+      </c>
+      <c r="E77">
+        <v>-0.03955462396215677</v>
+      </c>
+      <c r="F77">
+        <v>0.06474058500497917</v>
+      </c>
+      <c r="G77">
+        <v>-0.7860818455915186</v>
+      </c>
+      <c r="H77">
+        <v>0.3684128782061079</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1061513510177859</v>
+        <v>0.1529831132557142</v>
       </c>
       <c r="C78">
-        <v>0.04542636128642684</v>
+        <v>0.03452562175597303</v>
       </c>
       <c r="D78">
-        <v>0.08756518155931937</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.08081425533616876</v>
+      </c>
+      <c r="E78">
+        <v>-0.05777129212857225</v>
+      </c>
+      <c r="F78">
+        <v>0.05557639555168359</v>
+      </c>
+      <c r="G78">
+        <v>-0.03726430429561882</v>
+      </c>
+      <c r="H78">
+        <v>0.07783080722450977</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1408389190823399</v>
+        <v>0.1446296492878516</v>
       </c>
       <c r="C79">
-        <v>0.07473332054244605</v>
+        <v>0.03200576322792314</v>
       </c>
       <c r="D79">
-        <v>0.02125461805444936</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.04834600676610489</v>
+      </c>
+      <c r="E79">
+        <v>0.01572479914599804</v>
+      </c>
+      <c r="F79">
+        <v>0.01650157707653446</v>
+      </c>
+      <c r="G79">
+        <v>-0.02875511680609551</v>
+      </c>
+      <c r="H79">
+        <v>-0.1714379038450153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04214420438968071</v>
+        <v>0.04335544539284229</v>
       </c>
       <c r="C80">
-        <v>0.02111302502219239</v>
+        <v>0.01047232495407696</v>
       </c>
       <c r="D80">
-        <v>0.02870293247114016</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01454099877757404</v>
+      </c>
+      <c r="E80">
+        <v>0.0408920528719827</v>
+      </c>
+      <c r="F80">
+        <v>0.00797340618563031</v>
+      </c>
+      <c r="G80">
+        <v>0.0135705084553377</v>
+      </c>
+      <c r="H80">
+        <v>-0.0365980873240604</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1221631535805253</v>
+        <v>0.1253250783204647</v>
       </c>
       <c r="C81">
-        <v>0.07388033782109606</v>
+        <v>0.03887690889124008</v>
       </c>
       <c r="D81">
-        <v>0.01908633484712678</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.03246345143692541</v>
+      </c>
+      <c r="E81">
+        <v>-0.006711136909604346</v>
+      </c>
+      <c r="F81">
+        <v>0.01822770169122225</v>
+      </c>
+      <c r="G81">
+        <v>2.036108475636183e-05</v>
+      </c>
+      <c r="H81">
+        <v>-0.1481003541242493</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1299663018421557</v>
+        <v>0.1302154443317861</v>
       </c>
       <c r="C82">
-        <v>0.07341237338546944</v>
+        <v>0.03782556664508984</v>
       </c>
       <c r="D82">
-        <v>-0.0009187769163718706</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.0375294444475563</v>
+      </c>
+      <c r="E82">
+        <v>0.02298524055101679</v>
+      </c>
+      <c r="F82">
+        <v>0.03775147839513295</v>
+      </c>
+      <c r="G82">
+        <v>-0.0118245748291364</v>
+      </c>
+      <c r="H82">
+        <v>-0.2231220659199816</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.06444046379950413</v>
+        <v>0.08136123125462905</v>
       </c>
       <c r="C83">
-        <v>-0.01781726228989202</v>
+        <v>-0.02772770825716191</v>
       </c>
       <c r="D83">
-        <v>0.01927075193866954</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.01555381445033503</v>
+      </c>
+      <c r="E83">
+        <v>-0.01549801313711802</v>
+      </c>
+      <c r="F83">
+        <v>0.03469038326620995</v>
+      </c>
+      <c r="G83">
+        <v>0.04376388860069205</v>
+      </c>
+      <c r="H83">
+        <v>0.0335063687959913</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.0284894673777761</v>
+        <v>0.03311550245982417</v>
       </c>
       <c r="C84">
-        <v>0.03422223040853087</v>
+        <v>0.01601774398007375</v>
       </c>
       <c r="D84">
-        <v>0.03373182318500895</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.04198566678155011</v>
+      </c>
+      <c r="E84">
+        <v>-0.01995078402205876</v>
+      </c>
+      <c r="F84">
+        <v>-0.03525848298801448</v>
+      </c>
+      <c r="G84">
+        <v>0.02708876837197228</v>
+      </c>
+      <c r="H84">
+        <v>-0.02023846154464166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1163389235738717</v>
+        <v>0.1221837269945379</v>
       </c>
       <c r="C85">
-        <v>0.04409386201789119</v>
+        <v>0.01263547500934041</v>
       </c>
       <c r="D85">
-        <v>0.04879530173436132</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.04190781031720786</v>
+      </c>
+      <c r="E85">
+        <v>-0.01687782652423584</v>
+      </c>
+      <c r="F85">
+        <v>0.03439544354531504</v>
+      </c>
+      <c r="G85">
+        <v>0.005742883648286948</v>
+      </c>
+      <c r="H85">
+        <v>-0.1481260576238246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05164211565118787</v>
+        <v>0.05562356072044335</v>
       </c>
       <c r="C86">
-        <v>0.02680058278745301</v>
+        <v>0.00753810388401869</v>
       </c>
       <c r="D86">
-        <v>0.0647517309929569</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03437490603346247</v>
+      </c>
+      <c r="E86">
+        <v>-0.04070009489693813</v>
+      </c>
+      <c r="F86">
+        <v>0.02604566266483615</v>
+      </c>
+      <c r="G86">
+        <v>0.0365005988641947</v>
+      </c>
+      <c r="H86">
+        <v>0.05259894013537905</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.123492954692475</v>
+        <v>0.1265153433079894</v>
       </c>
       <c r="C87">
-        <v>0.08302174927498304</v>
+        <v>0.03250560652479611</v>
       </c>
       <c r="D87">
-        <v>0.06413425592445764</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07196382230094191</v>
+      </c>
+      <c r="E87">
+        <v>-0.02007479265123267</v>
+      </c>
+      <c r="F87">
+        <v>0.02309368291054571</v>
+      </c>
+      <c r="G87">
+        <v>-0.1488130263630275</v>
+      </c>
+      <c r="H87">
+        <v>0.07810247593850352</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05391890391144918</v>
+        <v>0.06353227579068067</v>
       </c>
       <c r="C88">
-        <v>0.03693275577833841</v>
+        <v>0.01989072496856087</v>
       </c>
       <c r="D88">
-        <v>0.02454744157255617</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04307740007688093</v>
+      </c>
+      <c r="E88">
+        <v>-0.002287671131751731</v>
+      </c>
+      <c r="F88">
+        <v>0.02241295405716133</v>
+      </c>
+      <c r="G88">
+        <v>-0.01106415443781138</v>
+      </c>
+      <c r="H88">
+        <v>-0.0463759656902035</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.07646299838093798</v>
+        <v>0.1034939854923265</v>
       </c>
       <c r="C89">
-        <v>0.06307437555151421</v>
+        <v>0.1564762645846261</v>
       </c>
       <c r="D89">
-        <v>-0.3182472234476352</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3273994964026565</v>
+      </c>
+      <c r="E89">
+        <v>-0.06100261284211576</v>
+      </c>
+      <c r="F89">
+        <v>0.07173500572307964</v>
+      </c>
+      <c r="G89">
+        <v>0.02093690646147224</v>
+      </c>
+      <c r="H89">
+        <v>-0.01864139379288213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.05708723925709105</v>
+        <v>0.07831815762122395</v>
       </c>
       <c r="C90">
-        <v>0.04733154387535037</v>
+        <v>0.1227290641632252</v>
       </c>
       <c r="D90">
-        <v>-0.281495081471572</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2711007643332992</v>
+      </c>
+      <c r="E90">
+        <v>-0.0565080657415495</v>
+      </c>
+      <c r="F90">
+        <v>0.0285412138446458</v>
+      </c>
+      <c r="G90">
+        <v>-0.03029367604935471</v>
+      </c>
+      <c r="H90">
+        <v>0.02167572731167696</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08885764375760741</v>
+        <v>0.08991811578444819</v>
       </c>
       <c r="C91">
-        <v>0.05594944441550168</v>
+        <v>0.02441379488041567</v>
       </c>
       <c r="D91">
-        <v>0.0104760791514167</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03518785513185235</v>
+      </c>
+      <c r="E91">
+        <v>-0.006032780381464995</v>
+      </c>
+      <c r="F91">
+        <v>0.00358008076487625</v>
+      </c>
+      <c r="G91">
+        <v>0.01647135395392604</v>
+      </c>
+      <c r="H91">
+        <v>-0.08963869830502541</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.06139804954679841</v>
+        <v>0.08095970128468662</v>
       </c>
       <c r="C92">
-        <v>0.05906367243094904</v>
+        <v>0.1456013520405424</v>
       </c>
       <c r="D92">
-        <v>-0.3341928963872541</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3161640591664931</v>
+      </c>
+      <c r="E92">
+        <v>-0.05178055113664509</v>
+      </c>
+      <c r="F92">
+        <v>0.03718630681315883</v>
+      </c>
+      <c r="G92">
+        <v>-0.00358921453959093</v>
+      </c>
+      <c r="H92">
+        <v>-0.01896994294685701</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.05207838297665876</v>
+        <v>0.07658464357670905</v>
       </c>
       <c r="C93">
-        <v>0.05258165291123815</v>
+        <v>0.1374498915464987</v>
       </c>
       <c r="D93">
-        <v>-0.2992278780190328</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2860394791875981</v>
+      </c>
+      <c r="E93">
+        <v>-0.02947696371351519</v>
+      </c>
+      <c r="F93">
+        <v>0.02859111596665222</v>
+      </c>
+      <c r="G93">
+        <v>-0.01381347017839364</v>
+      </c>
+      <c r="H93">
+        <v>-0.001192547674122149</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1311887577814365</v>
+        <v>0.1276968250566464</v>
       </c>
       <c r="C94">
-        <v>0.0452229344071224</v>
+        <v>0.002797702740654177</v>
       </c>
       <c r="D94">
-        <v>0.04145508252908536</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.0483336466891651</v>
+      </c>
+      <c r="E94">
+        <v>0.02004475189686069</v>
+      </c>
+      <c r="F94">
+        <v>0.01853058363955889</v>
+      </c>
+      <c r="G94">
+        <v>0.03095666149243365</v>
+      </c>
+      <c r="H94">
+        <v>-0.1092892578937393</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.120074865740154</v>
+        <v>0.1295789946439259</v>
       </c>
       <c r="C95">
-        <v>0.03468882394785098</v>
+        <v>-0.0008207129293751815</v>
       </c>
       <c r="D95">
-        <v>0.05653894878965977</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.06062928190239992</v>
+      </c>
+      <c r="E95">
+        <v>-0.003933839472728884</v>
+      </c>
+      <c r="F95">
+        <v>0.05530512931579085</v>
+      </c>
+      <c r="G95">
+        <v>-0.04459837036903766</v>
+      </c>
+      <c r="H95">
+        <v>0.09012796482430577</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2235784981233568</v>
+        <v>0.1946439773224305</v>
       </c>
       <c r="C97">
-        <v>0.05731220923971399</v>
+        <v>-0.003806026727209801</v>
       </c>
       <c r="D97">
-        <v>-0.130040673142062</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.06293215999819057</v>
+      </c>
+      <c r="E97">
+        <v>0.05747537579577514</v>
+      </c>
+      <c r="F97">
+        <v>-0.9384653718079746</v>
+      </c>
+      <c r="G97">
+        <v>-0.04606229773913835</v>
+      </c>
+      <c r="H97">
+        <v>0.02896039589446638</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2379355278222811</v>
+        <v>0.272914829047966</v>
       </c>
       <c r="C98">
-        <v>0.06477982983428518</v>
+        <v>0.02129967124736134</v>
       </c>
       <c r="D98">
-        <v>0.01095618785115575</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.04040285686920767</v>
+      </c>
+      <c r="E98">
+        <v>0.2014573632528055</v>
+      </c>
+      <c r="F98">
+        <v>0.04291708053683146</v>
+      </c>
+      <c r="G98">
+        <v>0.3193548288155056</v>
+      </c>
+      <c r="H98">
+        <v>0.17957438634941</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4411717139810505</v>
+        <v>0.2832487697836129</v>
       </c>
       <c r="C99">
-        <v>-0.8807446353835759</v>
+        <v>-0.8898866281429844</v>
       </c>
       <c r="D99">
-        <v>-0.03388093029737679</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.3042467509478884</v>
+      </c>
+      <c r="E99">
+        <v>-0.06733153839616332</v>
+      </c>
+      <c r="F99">
+        <v>0.0742990863756952</v>
+      </c>
+      <c r="G99">
+        <v>-0.01703260418328099</v>
+      </c>
+      <c r="H99">
+        <v>-0.07095028659552034</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04441915056755957</v>
+        <v>0.04799249704695435</v>
       </c>
       <c r="C101">
-        <v>0.04097331225633143</v>
+        <v>0.02925825762956809</v>
       </c>
       <c r="D101">
-        <v>0.001365788023686281</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01661871641720603</v>
+      </c>
+      <c r="E101">
+        <v>-0.05491340818239933</v>
+      </c>
+      <c r="F101">
+        <v>0.01450329997544312</v>
+      </c>
+      <c r="G101">
+        <v>-0.008666286568441478</v>
+      </c>
+      <c r="H101">
+        <v>-0.07716369699113304</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
